--- a/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>89,67%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,83; 92,62</t>
+          <t>86,32; 93,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,02; 91,78</t>
+          <t>85,83; 91,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,82; 91,54</t>
+          <t>87,08; 91,84</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,33; 95,26</t>
+          <t>89,1; 95,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,17; 93,83</t>
+          <t>89,24; 93,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,49; 94,18</t>
+          <t>90,47; 94,21</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>70,85%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,29; 76,1</t>
+          <t>66,54; 76,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,61; 74,08</t>
+          <t>65,66; 74,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,91; 73,67</t>
+          <t>67,04; 73,89</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,72; 69,64</t>
+          <t>54,9; 69,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,58; 66,24</t>
+          <t>47,47; 77,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,01; 65,67</t>
+          <t>53,19; 72,25</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>72,78%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,15; 82,89</t>
+          <t>72,18; 82,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,8; 72,58</t>
+          <t>63,26; 72,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,95; 75,94</t>
+          <t>69,29; 75,97</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>87,78%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,35; 88,29</t>
+          <t>80,48; 88,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,53; 93,07</t>
+          <t>87,54; 93,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,34; 90,01</t>
+          <t>85,39; 90,02</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>69,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>74,05%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,4; 72,6</t>
+          <t>64,78; 73,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68,87; 84,25</t>
+          <t>69,22; 89,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,23; 79,81</t>
+          <t>68,86; 84,92</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>94,93; 97,75</t>
+          <t>95,92; 98,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90,7; 95,28</t>
+          <t>91,23; 95,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,41; 96,13</t>
+          <t>94,55; 97,45</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>82,78%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>81,51; 84,5</t>
+          <t>82,07; 87,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,98; 83,41</t>
+          <t>79,23; 84,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,03; 83,47</t>
+          <t>81,14; 85,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,32; 93,09</t>
+          <t>86,4; 93,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,83; 91,85</t>
+          <t>85,99; 91,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,08; 91,84</t>
+          <t>86,85; 91,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,1; 95,3</t>
+          <t>89,26; 95,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,24; 93,8</t>
+          <t>89,54; 93,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,47; 94,21</t>
+          <t>90,17; 94,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,54; 76,5</t>
+          <t>67,0; 76,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,66; 74,11</t>
+          <t>65,73; 74,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,04; 73,89</t>
+          <t>67,04; 73,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,9; 69,88</t>
+          <t>54,59; 69,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,47; 77,09</t>
+          <t>48,45; 79,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,19; 72,25</t>
+          <t>52,8; 74,02</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,18; 82,83</t>
+          <t>72,19; 83,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,26; 72,78</t>
+          <t>63,3; 72,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,29; 75,97</t>
+          <t>69,03; 75,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,48; 88,44</t>
+          <t>81,05; 88,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,54; 93,06</t>
+          <t>87,68; 93,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,39; 90,02</t>
+          <t>84,68; 89,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,78; 73,13</t>
+          <t>64,5; 73,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,22; 89,73</t>
+          <t>69,24; 91,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,86; 84,92</t>
+          <t>68,84; 82,78</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,94</t>
+          <t>95,68; 98,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>91,23; 95,38</t>
+          <t>90,98; 95,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,55; 97,45</t>
+          <t>94,33; 97,56</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>82,07; 87,77</t>
+          <t>82,11; 87,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,23; 84,97</t>
+          <t>78,97; 85,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,14; 85,17</t>
+          <t>81,06; 85,18</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia baja a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>279309</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>257828</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>537137</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>267760; 288481</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>248624; 265233</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>520300; 549407</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>410159</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>422575</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>832734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>392918; 420448</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>411662; 432081</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>811443; 847093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>210804</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>226596</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>437400</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>196623; 225455</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>212916; 240628</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>413858; 456246</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>152163</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>249406</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>401569</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>132465; 168429</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>194800; 321557</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>340416; 477223</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>135604</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>138881</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>274486</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>125309; 144221</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>128859; 148107</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>260366; 286484</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>227018</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>230872</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>457891</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>216438; 236209</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>223238; 237005</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>441727; 468697</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>404666</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>637652</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1042319</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>377500; 429916</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>569291; 748202</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>968950; 1165120</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>890119</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>662599</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1552718</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>874695; 904909</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>642755; 674039</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1528768; 1581125</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>6683</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2709843</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2826408</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>5536252</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2649186; 2835376</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2733822; 2946526</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5421362; 5697167</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>